--- a/annex-2-3/mappings6.0/Buildings/2D/Unterlagen/TabellenCurrentUse/AX_Bauwerksfunktion_BauwerkOderAnlageFuerSportFreizeitUndErholung.xlsx
+++ b/annex-2-3/mappings6.0/Buildings/2D/Unterlagen/TabellenCurrentUse/AX_Bauwerksfunktion_BauwerkOderAnlageFuerSportFreizeitUndErholung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KL\Box Sync\staff\Projects\2017-10 AdV Umsetzung Annex II und III\Alignment_BU2D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johanna Ott\git\adv-inspire-alignments\annex-2-3\mappings6.0\Buildings\2D\Unterlagen\TabellenCurrentUse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0108BD2A-C75C-497C-B815-CACE201C367A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D407F30D-D9B4-426C-B35A-76F33DEB52D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12312" xr2:uid="{BA957729-35A6-4450-8217-FFA74347B8E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA957729-35A6-4450-8217-FFA74347B8E4}"/>
   </bookViews>
   <sheets>
     <sheet name="AX_Bauwerksfunktion_2" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>AX_Bauwerksfunktion_BauwerkOderAnlageFuerSportFreizeitUndErholung</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>Gradierwerk</t>
+  </si>
+  <si>
+    <t>Stadion, überdacht</t>
+  </si>
+  <si>
+    <t>Stadion, nicht überdacht</t>
+  </si>
+  <si>
+    <t>Wassersportanlage</t>
   </si>
 </sst>
 </file>
@@ -119,8 +128,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -136,7 +145,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -432,19 +441,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51E14787-4C87-490B-809B-F8DA86B8C061}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="64.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,7 +470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -472,7 +481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -483,7 +492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -494,7 +503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -505,32 +514,64 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>1441</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>1442</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="B8">
         <v>1470</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
+      <c r="B9">
         <v>1490</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>1650</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{E6AA87A3-D290-4104-B595-950315518229}"/>
-    <hyperlink ref="C3:C7" r:id="rId2" display="http://inspire.ec.europa.eu/codelist/CurrentUseValue/publicServices" xr:uid="{917981EE-AE07-405D-B6BF-62286D8E999E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
